--- a/TestCase_OrangeHRM.xlsx
+++ b/TestCase_OrangeHRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Certifications\java_selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A3542B-9167-4DD5-B11D-5EA9516CE6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB306D70-FEEB-4033-B1B1-063BEBA41F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case_Study_OrangeHRM" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="593">
   <si>
     <t>Functional Testing  Case Study - 1</t>
   </si>
@@ -3717,17 +3717,87 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Def_Ep2_012</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Def_Ep3_015</t>
+  </si>
+  <si>
+    <t>There active status is not avalible in Emplo High</t>
+  </si>
+  <si>
+    <t>Def_Ep3_016</t>
+  </si>
+  <si>
+    <t>After clicking on apply leave there no optic</t>
+  </si>
+  <si>
+    <t>Def_Ep3_017</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>There are not leaves in the list, its is showing</t>
+  </si>
+  <si>
+    <t>Def_Ep3_018</t>
+  </si>
+  <si>
+    <t>There is no option of leave balance High</t>
+  </si>
+  <si>
+    <t>Def_Ep4_019</t>
+  </si>
+  <si>
+    <t>There is no option of leave Type properties</t>
+  </si>
+  <si>
+    <t>Def_Ep4_020</t>
+  </si>
+  <si>
+    <t>Def_Ep5_22</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Def_Ep4_004</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>User Account existed and My Leave searc High</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3942,6 +4012,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4383,62 +4468,59 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4447,10 +4529,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4459,67 +4541,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4545,45 +4642,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4876,114 +4969,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:12" ht="66.599999999999994" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46" t="s">
         <v>569</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3" spans="1:12" ht="15.6">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12" ht="403.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="40" t="s">
         <v>570</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="5" spans="1:12" ht="172.8">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="51"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:12" ht="172.8">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5002,7 +5095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A38" activeCellId="1" sqref="A33:A36 A38:A41"/>
     </sheetView>
   </sheetViews>
@@ -5013,331 +5106,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.6">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27.6">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.6">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" ht="27.6">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.6">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27.6">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27.6">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27.6">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27.6">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27.6">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27.6">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27.6">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.6">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27.6">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27.6">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27.6">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27.6">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.6">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27.6">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27.6">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="34" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27.6">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="34" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27.6">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.6">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27.6">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27.6">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27.6">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27.6">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.6">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27.6">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27.6">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27.6">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27.6">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="34" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5365,28 +5458,28 @@
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="25" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" s="24" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="E14" s="25"/>
+      <c r="E14" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5403,1707 +5496,1707 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="100.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31" style="20" customWidth="1"/>
-    <col min="6" max="6" width="59.88671875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="111.109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="77.5546875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="20"/>
-    <col min="13" max="13" width="16" style="20" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="22.5546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="31" style="19" customWidth="1"/>
+    <col min="6" max="6" width="59.88671875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="111.109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="77.5546875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="19"/>
+    <col min="13" max="13" width="16" style="19" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="100.2" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="100.2" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="39" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="39" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="39" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="39" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="39" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="100.2" customHeight="1">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="39" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="39" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="39" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="39" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="39" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="19" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="19" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="19" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="19" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="19" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H36" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I38" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H40" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="I40" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="I42" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H44" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="I44" s="20" t="s">
+      <c r="I44" s="19" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="I45" s="20" t="s">
+      <c r="I45" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="I46" s="20" t="s">
+      <c r="I46" s="19" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="19" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I48" s="19" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="H49" s="20" t="s">
+      <c r="H49" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="H50" s="20" t="s">
+      <c r="H50" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="I50" s="20" t="s">
+      <c r="I50" s="19" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="I51" s="20" t="s">
+      <c r="I51" s="19" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="H52" s="20" t="s">
+      <c r="H52" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="I52" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="H53" s="20" t="s">
+      <c r="H53" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="I53" s="20" t="s">
+      <c r="I53" s="19" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="H55" s="20" t="s">
+      <c r="H55" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="I55" s="20" t="s">
+      <c r="I55" s="19" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="22" t="s">
         <v>532</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="H56" s="20" t="s">
+      <c r="H56" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="I56" s="20" t="s">
+      <c r="I56" s="19" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="22" t="s">
         <v>542</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="G57" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="H57" s="20" t="s">
+      <c r="H57" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="I57" s="20" t="s">
+      <c r="I57" s="19" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="I58" s="20" t="s">
+      <c r="I58" s="19" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="22" t="s">
         <v>555</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="22" t="s">
         <v>556</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="H59" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="I59" s="20" t="s">
+      <c r="I59" s="19" t="s">
         <v>471</v>
       </c>
     </row>
@@ -7114,10 +7207,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7131,7 +7224,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="76" t="s">
         <v>474</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -7150,24 +7243,163 @@
         <v>479</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="16"/>
+    <row r="2" spans="1:6" ht="15.6">
+      <c r="A2" s="73" t="s">
+        <v>572</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>574</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6">
+      <c r="A3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>573</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>577</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>574</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6">
+      <c r="A4" s="77" t="s">
+        <v>578</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>579</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>574</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6">
+      <c r="A5" s="77" t="s">
+        <v>580</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>582</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="77" t="s">
+        <v>583</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>584</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>574</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="77" t="s">
+        <v>585</v>
+      </c>
+      <c r="B7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>586</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>574</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="77" t="s">
+        <v>587</v>
+      </c>
+      <c r="B8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>584</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>574</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="77" t="s">
+        <v>588</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>589</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>574</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>591</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>592</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>574</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>575</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7188,23 +7420,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
@@ -7218,7 +7450,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="70" t="s">
         <v>485</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -7229,7 +7461,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1">
-      <c r="A6" s="67"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="5" t="s">
         <v>488</v>
       </c>
@@ -7238,7 +7470,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
-      <c r="A7" s="67"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="5" t="s">
         <v>490</v>
       </c>
@@ -7247,7 +7479,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8">
-      <c r="A8" s="67"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="5" t="s">
         <v>492</v>
       </c>
@@ -7256,14 +7488,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8">
-      <c r="A9" s="68"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="6" t="s">
         <v>494</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="28.8">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -7274,7 +7506,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8">
-      <c r="A11" s="56"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="5" t="s">
         <v>497</v>
       </c>
@@ -7283,7 +7515,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8">
-      <c r="A12" s="56"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="5" t="s">
         <v>499</v>
       </c>
@@ -7292,7 +7524,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="56"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="5" t="s">
         <v>501</v>
       </c>
@@ -7301,7 +7533,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8">
-      <c r="A14" s="56"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="5" t="s">
         <v>503</v>
       </c>
@@ -7310,7 +7542,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="56"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="5" t="s">
         <v>505</v>
       </c>
@@ -7319,7 +7551,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8">
-      <c r="A16" s="56"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="5" t="s">
         <v>507</v>
       </c>
@@ -7328,14 +7560,14 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="56"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="6" t="s">
         <v>509</v>
       </c>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="28.8">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -7346,7 +7578,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8">
-      <c r="A19" s="56"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="4" t="s">
         <v>512</v>
       </c>
@@ -7355,49 +7587,49 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="56"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="4" t="s">
         <v>514</v>
       </c>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="56"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="4" t="s">
         <v>515</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A22" s="56"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="4" t="s">
         <v>516</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="56"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="4" t="s">
         <v>517</v>
       </c>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="56"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="4" t="s">
         <v>518</v>
       </c>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="56"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="4" t="s">
         <v>519</v>
       </c>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="59" t="s">
         <v>520</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -7408,7 +7640,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="56"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="5" t="s">
         <v>523</v>
       </c>
@@ -7417,7 +7649,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="56"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="5" t="s">
         <v>525</v>
       </c>
